--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1457,26 +1457,26 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1547,21 +1547,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,27 +1601,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1720,36 +1720,6 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>22</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>9-11</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1457,26 +1457,26 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1547,21 +1547,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1601,27 +1601,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles . Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,20 +1706,50 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Live stream video frame rate less than 9Hz</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0-7</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Fly with caution</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>9-11</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
